--- a/target_points_100_3d.xlsx
+++ b/target_points_100_3d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\OneDrive\Documents\Transfer_100\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\OneDrive\Desktop\TL for Jeremy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBA5212A-E44A-4686-BD71-4DA18AC6A022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943C8420-81A2-4F94-967B-9803DE8DA6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="4635" windowWidth="28800" windowHeight="15075" xr2:uid="{A3ACF7A2-B370-47EC-8660-42E2C933B64B}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12708" xr2:uid="{A3ACF7A2-B370-47EC-8660-42E2C933B64B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>stage_speed</t>
+  </si>
+  <si>
+    <t>feed_rate</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,151 +398,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C2070B-ACD7-4037-B79C-5938F3B36D2F}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>350</v>
-      </c>
-      <c r="B1">
-        <v>537.6</v>
-      </c>
-      <c r="C1">
-        <v>2.9366666666666661</v>
-      </c>
-      <c r="D1">
-        <v>3.298285714285714</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>350</v>
       </c>
       <c r="B2">
+        <v>537.6</v>
+      </c>
+      <c r="C2">
+        <v>2.9366666666666661</v>
+      </c>
+      <c r="D2">
+        <v>3.298285714285714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>350</v>
+      </c>
+      <c r="B3">
         <v>691.2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>3.3266666666666667</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>4.2406530612244895</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>400</v>
-      </c>
-      <c r="B3">
-        <v>537.6</v>
-      </c>
-      <c r="C3">
-        <v>2.5866666666666664</v>
-      </c>
-      <c r="D3">
-        <v>2.8859999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>400</v>
       </c>
       <c r="B4">
+        <v>537.6</v>
+      </c>
+      <c r="C4">
+        <v>2.5866666666666664</v>
+      </c>
+      <c r="D4">
+        <v>2.8859999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
         <v>691.2</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>3.0733333333333328</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>3.7105714285714284</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>500</v>
-      </c>
-      <c r="B5">
-        <v>537.6</v>
-      </c>
-      <c r="C5">
-        <v>2.0433333333333334</v>
-      </c>
-      <c r="D5">
-        <v>2.3088000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>500</v>
       </c>
       <c r="B6">
+        <v>537.6</v>
+      </c>
+      <c r="C6">
+        <v>2.0433333333333334</v>
+      </c>
+      <c r="D6">
+        <v>2.3088000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
         <v>691.2</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>2.4833333333333329</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>2.9684571428571429</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>550</v>
-      </c>
-      <c r="B7">
-        <v>576</v>
-      </c>
-      <c r="C7">
-        <v>1.9033333333333333</v>
-      </c>
-      <c r="D7">
-        <v>2.2488311688311682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>550</v>
       </c>
       <c r="B8">
+        <v>576</v>
+      </c>
+      <c r="C8">
+        <v>1.9033333333333333</v>
+      </c>
+      <c r="D8">
+        <v>2.2488311688311682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>550</v>
+      </c>
+      <c r="B9">
         <v>691.2</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2.1933333333333334</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>2.698597402597402</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>700</v>
-      </c>
-      <c r="B9">
-        <v>576</v>
-      </c>
-      <c r="C9">
-        <v>1.95</v>
-      </c>
-      <c r="D9">
-        <v>1.7669387755102037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>700</v>
       </c>
       <c r="B10">
+        <v>576</v>
+      </c>
+      <c r="C10">
+        <v>1.95</v>
+      </c>
+      <c r="D10">
+        <v>1.7669387755102037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>700</v>
+      </c>
+      <c r="B11">
         <v>691.2</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>2.2200000000000002</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>2.1203265306122447</v>
       </c>
     </row>
